--- a/Team-Data/2012-13/1-3-2012-13.xlsx
+++ b/Team-Data/2012-13/1-3-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-3-2012-13</t>
+          <t>2013-01-03</t>
         </is>
       </c>
     </row>
@@ -926,10 +993,10 @@
         <v>-2.5</v>
       </c>
       <c r="AD3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE3" t="n">
         <v>19</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>20</v>
       </c>
       <c r="AF3" t="n">
         <v>18</v>
@@ -962,7 +1029,7 @@
         <v>19</v>
       </c>
       <c r="AP3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ3" t="n">
         <v>5</v>
@@ -977,7 +1044,7 @@
         <v>30</v>
       </c>
       <c r="AU3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV3" t="n">
         <v>12</v>
@@ -986,7 +1053,7 @@
         <v>8</v>
       </c>
       <c r="AX3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY3" t="n">
         <v>14</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-3-2012-13</t>
+          <t>2013-01-03</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1184,7 @@
         <v>14</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH4" t="n">
         <v>13</v>
@@ -1159,7 +1226,7 @@
         <v>22</v>
       </c>
       <c r="AU4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV4" t="n">
         <v>8</v>
@@ -1183,7 +1250,7 @@
         <v>22</v>
       </c>
       <c r="BC4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-3-2012-13</t>
+          <t>2013-01-03</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-8.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE5" t="n">
         <v>27</v>
@@ -1338,7 +1405,7 @@
         <v>21</v>
       </c>
       <c r="AT5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU5" t="n">
         <v>29</v>
@@ -1350,7 +1417,7 @@
         <v>21</v>
       </c>
       <c r="AX5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY5" t="n">
         <v>30</v>
@@ -1359,7 +1426,7 @@
         <v>10</v>
       </c>
       <c r="BA5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB5" t="n">
         <v>19</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-3-2012-13</t>
+          <t>2013-01-03</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-3-2012-13</t>
+          <t>2013-01-03</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-5.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
         <v>28</v>
@@ -1687,7 +1754,7 @@
         <v>15</v>
       </c>
       <c r="AO7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP7" t="n">
         <v>17</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-3-2012-13</t>
+          <t>2013-01-03</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>-4.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
         <v>21</v>
@@ -1869,7 +1936,7 @@
         <v>14</v>
       </c>
       <c r="AO8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP8" t="n">
         <v>18</v>
@@ -1890,10 +1957,10 @@
         <v>16</v>
       </c>
       <c r="AV8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX8" t="n">
         <v>14</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-3-2012-13</t>
+          <t>2013-01-03</t>
         </is>
       </c>
     </row>
@@ -1940,22 +2007,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" t="n">
         <v>18</v>
       </c>
       <c r="F9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" t="n">
-        <v>0.529</v>
+        <v>0.545</v>
       </c>
       <c r="H9" t="n">
         <v>48.3</v>
       </c>
       <c r="I9" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="J9" t="n">
         <v>84.40000000000001</v>
@@ -1967,70 +2034,70 @@
         <v>6.2</v>
       </c>
       <c r="M9" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="N9" t="n">
-        <v>0.328</v>
+        <v>0.33</v>
       </c>
       <c r="O9" t="n">
-        <v>16.7</v>
+        <v>16.9</v>
       </c>
       <c r="P9" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.678</v>
+        <v>0.681</v>
       </c>
       <c r="R9" t="n">
         <v>13.9</v>
       </c>
       <c r="S9" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="T9" t="n">
-        <v>46.1</v>
+        <v>46.3</v>
       </c>
       <c r="U9" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="V9" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="W9" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X9" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Y9" t="n">
         <v>6.7</v>
       </c>
-      <c r="Y9" t="n">
-        <v>6.6</v>
-      </c>
       <c r="Z9" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="AB9" t="n">
-        <v>101.4</v>
+        <v>101.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE9" t="n">
         <v>10</v>
       </c>
       <c r="AF9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI9" t="n">
         <v>2</v>
@@ -2045,13 +2112,13 @@
         <v>23</v>
       </c>
       <c r="AM9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN9" t="n">
         <v>28</v>
       </c>
       <c r="AO9" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AP9" t="n">
         <v>8</v>
@@ -2063,31 +2130,31 @@
         <v>1</v>
       </c>
       <c r="AS9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AT9" t="n">
         <v>1</v>
       </c>
       <c r="AU9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV9" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AW9" t="n">
         <v>12</v>
       </c>
       <c r="AX9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY9" t="n">
         <v>27</v>
       </c>
       <c r="AZ9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB9" t="n">
         <v>8</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-3-2012-13</t>
+          <t>2013-01-03</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-1.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
         <v>22</v>
@@ -2251,7 +2318,7 @@
         <v>8</v>
       </c>
       <c r="AU10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV10" t="n">
         <v>16</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-3-2012-13</t>
+          <t>2013-01-03</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2503,7 @@
         <v>6</v>
       </c>
       <c r="AV11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW11" t="n">
         <v>25</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-3-2012-13</t>
+          <t>2013-01-03</t>
         </is>
       </c>
     </row>
@@ -2600,7 +2667,7 @@
         <v>3</v>
       </c>
       <c r="AP12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ12" t="n">
         <v>13</v>
@@ -2633,10 +2700,10 @@
         <v>6</v>
       </c>
       <c r="BA12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC12" t="n">
         <v>9</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-3-2012-13</t>
+          <t>2013-01-03</t>
         </is>
       </c>
     </row>
@@ -2773,7 +2840,7 @@
         <v>18</v>
       </c>
       <c r="AM13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN13" t="n">
         <v>18</v>
@@ -2791,7 +2858,7 @@
         <v>9</v>
       </c>
       <c r="AS13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT13" t="n">
         <v>5</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-3-2012-13</t>
+          <t>2013-01-03</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>8.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
@@ -2937,7 +3004,7 @@
         <v>2</v>
       </c>
       <c r="AG14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH14" t="n">
         <v>30</v>
@@ -2976,7 +3043,7 @@
         <v>18</v>
       </c>
       <c r="AT14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU14" t="n">
         <v>3</v>
@@ -3003,7 +3070,7 @@
         <v>9</v>
       </c>
       <c r="BC14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-3-2012-13</t>
+          <t>2013-01-03</t>
         </is>
       </c>
     </row>
@@ -3110,13 +3177,13 @@
         <v>2.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE15" t="n">
         <v>17</v>
       </c>
       <c r="AF15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AG15" t="n">
         <v>18</v>
@@ -3164,7 +3231,7 @@
         <v>19</v>
       </c>
       <c r="AV15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW15" t="n">
         <v>21</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-3-2012-13</t>
+          <t>2013-01-03</t>
         </is>
       </c>
     </row>
@@ -3298,7 +3365,7 @@
         <v>7</v>
       </c>
       <c r="AF16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG16" t="n">
         <v>5</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-3-2012-13</t>
+          <t>2013-01-03</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-3-2012-13</t>
+          <t>2013-01-03</t>
         </is>
       </c>
     </row>
@@ -3665,7 +3732,7 @@
         <v>11</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH18" t="n">
         <v>20</v>
@@ -3695,7 +3762,7 @@
         <v>19</v>
       </c>
       <c r="AQ18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR18" t="n">
         <v>8</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-3-2012-13</t>
+          <t>2013-01-03</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" t="n">
         <v>14</v>
       </c>
       <c r="G19" t="n">
-        <v>0.517</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
@@ -3787,28 +3854,28 @@
         <v>5.7</v>
       </c>
       <c r="M19" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="N19" t="n">
-        <v>0.295</v>
+        <v>0.293</v>
       </c>
       <c r="O19" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P19" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.728</v>
+        <v>0.729</v>
       </c>
       <c r="R19" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="S19" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="T19" t="n">
-        <v>46</v>
+        <v>45.8</v>
       </c>
       <c r="U19" t="n">
         <v>21.7</v>
@@ -3817,37 +3884,37 @@
         <v>15.4</v>
       </c>
       <c r="W19" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="X19" t="n">
         <v>5.6</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="AA19" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AB19" t="n">
-        <v>95.40000000000001</v>
+        <v>95.2</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF19" t="n">
         <v>11</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH19" t="n">
         <v>26</v>
@@ -3856,7 +3923,7 @@
         <v>23</v>
       </c>
       <c r="AJ19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK19" t="n">
         <v>26</v>
@@ -3874,7 +3941,7 @@
         <v>6</v>
       </c>
       <c r="AP19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ19" t="n">
         <v>24</v>
@@ -3883,7 +3950,7 @@
         <v>2</v>
       </c>
       <c r="AS19" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AT19" t="n">
         <v>4</v>
@@ -3892,16 +3959,16 @@
         <v>18</v>
       </c>
       <c r="AV19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW19" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AX19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ19" t="n">
         <v>3</v>
@@ -3913,7 +3980,7 @@
         <v>20</v>
       </c>
       <c r="BC19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-3-2012-13</t>
+          <t>2013-01-03</t>
         </is>
       </c>
     </row>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-3-2012-13</t>
+          <t>2013-01-03</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F21" t="n">
         <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.677</v>
       </c>
       <c r="H21" t="n">
         <v>48.2</v>
@@ -4154,37 +4221,37 @@
         <v>29.1</v>
       </c>
       <c r="N21" t="n">
-        <v>0.389</v>
+        <v>0.388</v>
       </c>
       <c r="O21" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="P21" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.747</v>
+        <v>0.75</v>
       </c>
       <c r="R21" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S21" t="n">
-        <v>29.5</v>
+        <v>29.2</v>
       </c>
       <c r="T21" t="n">
-        <v>39.9</v>
+        <v>39.7</v>
       </c>
       <c r="U21" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="V21" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="W21" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="X21" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Y21" t="n">
         <v>3.9</v>
@@ -4193,31 +4260,31 @@
         <v>18.8</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.1</v>
+        <v>19.4</v>
       </c>
       <c r="AB21" t="n">
-        <v>102.1</v>
+        <v>102.2</v>
       </c>
       <c r="AC21" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="AD21" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AE21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF21" t="n">
         <v>6</v>
       </c>
       <c r="AG21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ21" t="n">
         <v>9</v>
@@ -4235,31 +4302,31 @@
         <v>5</v>
       </c>
       <c r="AO21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR21" t="n">
         <v>22</v>
       </c>
       <c r="AS21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU21" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AV21" t="n">
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX21" t="n">
         <v>28</v>
@@ -4271,7 +4338,7 @@
         <v>5</v>
       </c>
       <c r="BA21" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BB21" t="n">
         <v>6</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-3-2012-13</t>
+          <t>2013-01-03</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>8.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
@@ -4399,7 +4466,7 @@
         <v>12</v>
       </c>
       <c r="AI22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ22" t="n">
         <v>30</v>
@@ -4441,7 +4508,7 @@
         <v>29</v>
       </c>
       <c r="AW22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX22" t="n">
         <v>1</v>
@@ -4450,16 +4517,16 @@
         <v>2</v>
       </c>
       <c r="AZ22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA22" t="n">
         <v>8</v>
       </c>
       <c r="BB22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-3-2012-13</t>
+          <t>2013-01-03</t>
         </is>
       </c>
     </row>
@@ -4584,7 +4651,7 @@
         <v>12</v>
       </c>
       <c r="AJ23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK23" t="n">
         <v>10</v>
@@ -4608,7 +4675,7 @@
         <v>9</v>
       </c>
       <c r="AR23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS23" t="n">
         <v>7</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-3-2012-13</t>
+          <t>2013-01-03</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE24" t="n">
         <v>17</v>
@@ -4796,7 +4863,7 @@
         <v>17</v>
       </c>
       <c r="AT24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU24" t="n">
         <v>17</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-3-2012-13</t>
+          <t>2013-01-03</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-3.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
         <v>22</v>
@@ -4969,7 +5036,7 @@
         <v>26</v>
       </c>
       <c r="AQ25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR25" t="n">
         <v>19</v>
@@ -4990,7 +5057,7 @@
         <v>11</v>
       </c>
       <c r="AX25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY25" t="n">
         <v>16</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-3-2012-13</t>
+          <t>2013-01-03</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AE26" t="n">
         <v>14</v>
@@ -5121,7 +5188,7 @@
         <v>14</v>
       </c>
       <c r="AG26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH26" t="n">
         <v>5</v>
@@ -5157,7 +5224,7 @@
         <v>12</v>
       </c>
       <c r="AS26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT26" t="n">
         <v>21</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-3-2012-13</t>
+          <t>2013-01-03</t>
         </is>
       </c>
     </row>
@@ -5363,7 +5430,7 @@
         <v>25</v>
       </c>
       <c r="BA27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB27" t="n">
         <v>15</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-3-2012-13</t>
+          <t>2013-01-03</t>
         </is>
       </c>
     </row>
@@ -5398,58 +5465,58 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E28" t="n">
         <v>26</v>
       </c>
       <c r="F28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G28" t="n">
-        <v>0.743</v>
+        <v>0.765</v>
       </c>
       <c r="H28" t="n">
         <v>48.6</v>
       </c>
       <c r="I28" t="n">
-        <v>39.8</v>
+        <v>40.1</v>
       </c>
       <c r="J28" t="n">
-        <v>82.09999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="K28" t="n">
-        <v>0.484</v>
+        <v>0.488</v>
       </c>
       <c r="L28" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>22.6</v>
+        <v>22.2</v>
       </c>
       <c r="N28" t="n">
-        <v>0.391</v>
+        <v>0.397</v>
       </c>
       <c r="O28" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P28" t="n">
         <v>21.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.792</v>
+        <v>0.79</v>
       </c>
       <c r="R28" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="S28" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="T28" t="n">
-        <v>41.7</v>
+        <v>41.9</v>
       </c>
       <c r="U28" t="n">
-        <v>25.3</v>
+        <v>25.7</v>
       </c>
       <c r="V28" t="n">
         <v>15.1</v>
@@ -5464,16 +5531,16 @@
         <v>5.1</v>
       </c>
       <c r="Z28" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="AA28" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AB28" t="n">
-        <v>105.2</v>
+        <v>105.9</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -5482,19 +5549,19 @@
         <v>1</v>
       </c>
       <c r="AF28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI28" t="n">
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5503,13 +5570,13 @@
         <v>5</v>
       </c>
       <c r="AM28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN28" t="n">
         <v>3</v>
       </c>
       <c r="AO28" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AP28" t="n">
         <v>22</v>
@@ -5521,10 +5588,10 @@
         <v>28</v>
       </c>
       <c r="AS28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT28" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
@@ -5533,7 +5600,7 @@
         <v>18</v>
       </c>
       <c r="AW28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX28" t="n">
         <v>16</v>
@@ -5548,10 +5615,10 @@
         <v>26</v>
       </c>
       <c r="BB28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-3-2012-13</t>
+          <t>2013-01-03</t>
         </is>
       </c>
     </row>
@@ -5685,7 +5752,7 @@
         <v>10</v>
       </c>
       <c r="AM29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN29" t="n">
         <v>21</v>
@@ -5706,7 +5773,7 @@
         <v>23</v>
       </c>
       <c r="AT29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU29" t="n">
         <v>13</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-3-2012-13</t>
+          <t>2013-01-03</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-0.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE30" t="n">
         <v>14</v>
@@ -5858,7 +5925,7 @@
         <v>16</v>
       </c>
       <c r="AJ30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK30" t="n">
         <v>15</v>
@@ -5897,13 +5964,13 @@
         <v>17</v>
       </c>
       <c r="AW30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ30" t="n">
         <v>27</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-3-2012-13</t>
+          <t>2013-01-03</t>
         </is>
       </c>
     </row>
@@ -6076,7 +6143,7 @@
         <v>22</v>
       </c>
       <c r="AV31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW31" t="n">
         <v>24</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-3-2012-13</t>
+          <t>2013-01-03</t>
         </is>
       </c>
     </row>
